--- a/config_9.22/act_030_cwlb_config.xlsx
+++ b/config_9.22/act_030_cwlb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanqp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>icon|活动图标</t>
   </si>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>福利券x600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>asset_type|资产类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,27 +78,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>pay_name|图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon|图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>line|</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>6元礼包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_name|图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon|图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"aaaa","ddd","dasdad",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万","90万","x1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>line|</t>
+  </si>
+  <si>
+    <t>20元礼包</t>
+  </si>
+  <si>
+    <t>48元礼包</t>
+  </si>
+  <si>
+    <t>98元礼包</t>
+  </si>
+  <si>
+    <t>198元礼包</t>
+  </si>
+  <si>
+    <t>498元礼包</t>
+  </si>
+  <si>
+    <t>"60万","3000","抽奖券*1",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万","抽奖券*4",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万","抽奖券*10",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万","抽奖券*20",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万","抽奖券*30",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万","抽奖券*50",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_3","com_award_icon_dhq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yxb_2","com_award_icon_dhq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","com_award_icon_dhq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_4","com_award_icon_dhq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_5","com_award_icon_dhq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_5","com_award_icon_dhq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000金币</t>
+  </si>
+  <si>
+    <t>15福利券</t>
+  </si>
+  <si>
+    <t>20000金币</t>
+  </si>
+  <si>
+    <t>30福利券</t>
+  </si>
+  <si>
+    <t>50000金币</t>
+  </si>
+  <si>
+    <t>100元话费</t>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +547,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,7 +561,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -494,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -508,13 +584,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E2">
-        <v>600</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -525,13 +601,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>600</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -542,13 +618,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>600</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -559,13 +635,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>600</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -576,13 +652,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>600</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -593,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>600</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -611,10 +687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,16 +699,16 @@
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -641,10 +717,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -652,32 +728,120 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>10002222</v>
+        <v>10311</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10312</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10313</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10314</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
